--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Nid1-Itgav.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Nid1-Itgav.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.28954723061241</v>
+        <v>40.42873533333334</v>
       </c>
       <c r="H2">
-        <v>9.28954723061241</v>
+        <v>121.286206</v>
       </c>
       <c r="I2">
-        <v>0.02042324989678954</v>
+        <v>0.08313576592793961</v>
       </c>
       <c r="J2">
-        <v>0.02042324989678954</v>
+        <v>0.08313576592793961</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N2">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O2">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P2">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q2">
-        <v>117.3640681436275</v>
+        <v>668.513557692808</v>
       </c>
       <c r="R2">
-        <v>117.3640681436275</v>
+        <v>6016.622019235272</v>
       </c>
       <c r="S2">
-        <v>0.00354977850059847</v>
+        <v>0.01762854964478847</v>
       </c>
       <c r="T2">
-        <v>0.00354977850059847</v>
+        <v>0.01762854964478848</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.28954723061241</v>
+        <v>40.42873533333334</v>
       </c>
       <c r="H3">
-        <v>9.28954723061241</v>
+        <v>121.286206</v>
       </c>
       <c r="I3">
-        <v>0.02042324989678954</v>
+        <v>0.08313576592793961</v>
       </c>
       <c r="J3">
-        <v>0.02042324989678954</v>
+        <v>0.08313576592793961</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N3">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P3">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q3">
-        <v>376.9691264466751</v>
+        <v>1642.24072629575</v>
       </c>
       <c r="R3">
-        <v>376.9691264466751</v>
+        <v>14780.16653666175</v>
       </c>
       <c r="S3">
-        <v>0.01140175968348496</v>
+        <v>0.04330551241490486</v>
       </c>
       <c r="T3">
-        <v>0.01140175968348496</v>
+        <v>0.04330551241490486</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.28954723061241</v>
+        <v>40.42873533333334</v>
       </c>
       <c r="H4">
-        <v>9.28954723061241</v>
+        <v>121.286206</v>
       </c>
       <c r="I4">
-        <v>0.02042324989678954</v>
+        <v>0.08313576592793961</v>
       </c>
       <c r="J4">
-        <v>0.02042324989678954</v>
+        <v>0.08313576592793961</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N4">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O4">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P4">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q4">
-        <v>180.9077231731661</v>
+        <v>841.9376714970581</v>
       </c>
       <c r="R4">
-        <v>180.9077231731661</v>
+        <v>7577.439043473522</v>
       </c>
       <c r="S4">
-        <v>0.00547171171270611</v>
+        <v>0.02220170386824628</v>
       </c>
       <c r="T4">
-        <v>0.00547171171270611</v>
+        <v>0.02220170386824628</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>412.201254264705</v>
+        <v>412.4720866666667</v>
       </c>
       <c r="H5">
-        <v>412.201254264705</v>
+        <v>1237.41626</v>
       </c>
       <c r="I5">
-        <v>0.9062324583351271</v>
+        <v>0.84818836320749</v>
       </c>
       <c r="J5">
-        <v>0.9062324583351271</v>
+        <v>0.84818836320749</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N5">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O5">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P5">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q5">
-        <v>5207.747470726008</v>
+        <v>6820.475086173679</v>
       </c>
       <c r="R5">
-        <v>5207.747470726008</v>
+        <v>61384.27577556312</v>
       </c>
       <c r="S5">
-        <v>0.1575128597749872</v>
+        <v>0.1798543683580842</v>
       </c>
       <c r="T5">
-        <v>0.1575128597749872</v>
+        <v>0.1798543683580842</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>412.201254264705</v>
+        <v>412.4720866666667</v>
       </c>
       <c r="H6">
-        <v>412.201254264705</v>
+        <v>1237.41626</v>
       </c>
       <c r="I6">
-        <v>0.9062324583351271</v>
+        <v>0.84818836320749</v>
       </c>
       <c r="J6">
-        <v>0.9062324583351271</v>
+        <v>0.84818836320749</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N6">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P6">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q6">
-        <v>16727.09582963667</v>
+        <v>16754.87629279599</v>
       </c>
       <c r="R6">
-        <v>16727.09582963667</v>
+        <v>150793.8866351639</v>
       </c>
       <c r="S6">
-        <v>0.5059255877261322</v>
+        <v>0.4418222564389156</v>
       </c>
       <c r="T6">
-        <v>0.5059255877261322</v>
+        <v>0.4418222564389156</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>412.201254264705</v>
+        <v>412.4720866666667</v>
       </c>
       <c r="H7">
-        <v>412.201254264705</v>
+        <v>1237.41626</v>
       </c>
       <c r="I7">
-        <v>0.9062324583351271</v>
+        <v>0.84818836320749</v>
       </c>
       <c r="J7">
-        <v>0.9062324583351271</v>
+        <v>0.84818836320749</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N7">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O7">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P7">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q7">
-        <v>8027.343911058956</v>
+        <v>8589.82566094118</v>
       </c>
       <c r="R7">
-        <v>8027.343911058956</v>
+        <v>77308.43094847062</v>
       </c>
       <c r="S7">
-        <v>0.2427940108340078</v>
+        <v>0.2265117384104903</v>
       </c>
       <c r="T7">
-        <v>0.2427940108340078</v>
+        <v>0.2265117384104903</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.3607660836844</v>
+        <v>33.396921</v>
       </c>
       <c r="H8">
-        <v>33.3607660836844</v>
+        <v>100.190763</v>
       </c>
       <c r="I8">
-        <v>0.07334429176808338</v>
+        <v>0.0686758708645703</v>
       </c>
       <c r="J8">
-        <v>0.07334429176808338</v>
+        <v>0.0686758708645703</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N8">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O8">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P8">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q8">
-        <v>421.4796616854098</v>
+        <v>552.2382604752839</v>
       </c>
       <c r="R8">
-        <v>421.4796616854098</v>
+        <v>4970.144344277555</v>
       </c>
       <c r="S8">
-        <v>0.01274801960391675</v>
+        <v>0.01456239664628256</v>
       </c>
       <c r="T8">
-        <v>0.01274801960391675</v>
+        <v>0.01456239664628256</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.3607660836844</v>
+        <v>33.396921</v>
       </c>
       <c r="H9">
-        <v>33.3607660836844</v>
+        <v>100.190763</v>
       </c>
       <c r="I9">
-        <v>0.07334429176808338</v>
+        <v>0.0686758708645703</v>
       </c>
       <c r="J9">
-        <v>0.07334429176808338</v>
+        <v>0.0686758708645703</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N9">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O9">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P9">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q9">
-        <v>1353.777373208889</v>
+        <v>1356.603993344844</v>
       </c>
       <c r="R9">
-        <v>1353.777373208889</v>
+        <v>12209.4359401036</v>
       </c>
       <c r="S9">
-        <v>0.04094617620217961</v>
+        <v>0.03577333708464168</v>
       </c>
       <c r="T9">
-        <v>0.04094617620217961</v>
+        <v>0.03577333708464168</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>33.3607660836844</v>
+        <v>33.396921</v>
       </c>
       <c r="H10">
-        <v>33.3607660836844</v>
+        <v>100.190763</v>
       </c>
       <c r="I10">
-        <v>0.07334429176808338</v>
+        <v>0.0686758708645703</v>
       </c>
       <c r="J10">
-        <v>0.07334429176808338</v>
+        <v>0.0686758708645703</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N10">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O10">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P10">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q10">
-        <v>649.6786211090782</v>
+        <v>695.498527719909</v>
       </c>
       <c r="R10">
-        <v>649.6786211090782</v>
+        <v>6259.486749479181</v>
       </c>
       <c r="S10">
-        <v>0.01965009596198703</v>
+        <v>0.01834013713364606</v>
       </c>
       <c r="T10">
-        <v>0.01965009596198703</v>
+        <v>0.01834013713364606</v>
       </c>
     </row>
   </sheetData>
